--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Final_Parameters/Atishay Ltd_Cleaned_Data.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Final_Parameters/Atishay Ltd_Cleaned_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="204">
   <si>
     <t>Balance Sheet of Atishay(in Rs. Cr.)</t>
   </si>
@@ -347,6 +347,9 @@
     <t>P/l before exceptional items &amp; tax</t>
   </si>
   <si>
+    <t>Exceptional items</t>
+  </si>
+  <si>
     <t>P/l before tax</t>
   </si>
   <si>
@@ -495,6 +498,9 @@
   </si>
   <si>
     <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
   </si>
   <si>
     <t>P/L Before Tax</t>
@@ -3366,13 +3372,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -3433,19 +3439,22 @@
       <c r="T1" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
         <v>104</v>
@@ -3454,51 +3463,54 @@
         <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
         <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
         <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="N2" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>167</v>
+      </c>
+      <c r="U2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>3.95</v>
@@ -3531,22 +3543,22 @@
         <v>1.06</v>
       </c>
       <c r="L3">
+        <v>0.14</v>
+      </c>
+      <c r="M3">
         <v>1.2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="N3">
-        <v>0.64</v>
       </c>
       <c r="O3">
         <v>0.64</v>
       </c>
       <c r="P3">
+        <v>0.64</v>
+      </c>
+      <c r="Q3">
         <v>10.98</v>
-      </c>
-      <c r="Q3">
-        <v>0.59</v>
       </c>
       <c r="R3">
         <v>0.59</v>
@@ -3557,10 +3569,13 @@
       <c r="T3">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>6.44</v>
@@ -3592,25 +3607,25 @@
       <c r="K4">
         <v>2.41</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2.41</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.61</v>
-      </c>
-      <c r="N4">
-        <v>1.81</v>
       </c>
       <c r="O4">
         <v>1.81</v>
       </c>
       <c r="P4">
+        <v>1.81</v>
+      </c>
+      <c r="Q4">
         <v>10.98</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>4.94</v>
@@ -3642,23 +3657,20 @@
       <c r="K5">
         <v>-0.88</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-0.88</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-0.45</v>
-      </c>
-      <c r="N5">
-        <v>-0.43</v>
       </c>
       <c r="O5">
         <v>-0.43</v>
       </c>
       <c r="P5">
+        <v>-0.43</v>
+      </c>
+      <c r="Q5">
         <v>8.789999999999999</v>
-      </c>
-      <c r="Q5">
-        <v>-0.39</v>
       </c>
       <c r="R5">
         <v>-0.39</v>
@@ -3669,10 +3681,13 @@
       <c r="T5">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>3.62</v>
@@ -3704,23 +3719,20 @@
       <c r="K6">
         <v>-0.78</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-0.78</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-0.28</v>
-      </c>
-      <c r="N6">
-        <v>-0.5</v>
       </c>
       <c r="O6">
         <v>-0.5</v>
       </c>
       <c r="P6">
+        <v>-0.5</v>
+      </c>
+      <c r="Q6">
         <v>10.98</v>
-      </c>
-      <c r="Q6">
-        <v>-0.46</v>
       </c>
       <c r="R6">
         <v>-0.46</v>
@@ -3731,10 +3743,13 @@
       <c r="T6">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>7.81</v>
@@ -3767,22 +3782,22 @@
         <v>2</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.68</v>
-      </c>
-      <c r="N7">
-        <v>1.32</v>
       </c>
       <c r="O7">
         <v>1.32</v>
       </c>
       <c r="P7">
+        <v>1.32</v>
+      </c>
+      <c r="Q7">
         <v>10.98</v>
-      </c>
-      <c r="Q7">
-        <v>1.2</v>
       </c>
       <c r="R7">
         <v>1.2</v>
@@ -3793,10 +3808,13 @@
       <c r="T7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <v>5.64</v>
@@ -3828,23 +3846,20 @@
       <c r="K8">
         <v>1.32</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.32</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.3</v>
-      </c>
-      <c r="N8">
-        <v>1.02</v>
       </c>
       <c r="O8">
         <v>1.02</v>
       </c>
       <c r="P8">
+        <v>1.02</v>
+      </c>
+      <c r="Q8">
         <v>10.98</v>
-      </c>
-      <c r="Q8">
-        <v>0.93</v>
       </c>
       <c r="R8">
         <v>0.93</v>
@@ -3855,10 +3870,13 @@
       <c r="T8">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9">
         <v>5.66</v>
@@ -3890,23 +3908,20 @@
       <c r="K9">
         <v>1.29</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.29</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.36</v>
-      </c>
-      <c r="N9">
-        <v>0.93</v>
       </c>
       <c r="O9">
         <v>0.93</v>
       </c>
       <c r="P9">
+        <v>0.93</v>
+      </c>
+      <c r="Q9">
         <v>10.98</v>
-      </c>
-      <c r="Q9">
-        <v>0.85</v>
       </c>
       <c r="R9">
         <v>0.85</v>
@@ -3917,10 +3932,13 @@
       <c r="T9">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>7.75</v>
@@ -3952,23 +3970,20 @@
       <c r="K10">
         <v>2.05</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2.05</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.49</v>
-      </c>
-      <c r="N10">
-        <v>1.56</v>
       </c>
       <c r="O10">
         <v>1.56</v>
       </c>
       <c r="P10">
+        <v>1.56</v>
+      </c>
+      <c r="Q10">
         <v>10.98</v>
-      </c>
-      <c r="Q10">
-        <v>1.42</v>
       </c>
       <c r="R10">
         <v>1.42</v>
@@ -3979,10 +3994,13 @@
       <c r="T10">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>5.82</v>
@@ -4014,23 +4032,20 @@
       <c r="K11">
         <v>0.38</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.38</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.09</v>
-      </c>
-      <c r="N11">
-        <v>0.29</v>
       </c>
       <c r="O11">
         <v>0.29</v>
       </c>
       <c r="P11">
+        <v>0.29</v>
+      </c>
+      <c r="Q11">
         <v>10.98</v>
-      </c>
-      <c r="Q11">
-        <v>0.27</v>
       </c>
       <c r="R11">
         <v>0.27</v>
@@ -4041,10 +4056,13 @@
       <c r="T11">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>7.73</v>
@@ -4076,23 +4094,20 @@
       <c r="K12">
         <v>2.24</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2.24</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.66</v>
-      </c>
-      <c r="N12">
-        <v>1.58</v>
       </c>
       <c r="O12">
         <v>1.58</v>
       </c>
       <c r="P12">
+        <v>1.58</v>
+      </c>
+      <c r="Q12">
         <v>10.98</v>
-      </c>
-      <c r="Q12">
-        <v>1.44</v>
       </c>
       <c r="R12">
         <v>1.44</v>
@@ -4103,10 +4118,13 @@
       <c r="T12">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>5.54</v>
@@ -4138,23 +4156,20 @@
       <c r="K13">
         <v>1.72</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1.72</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.48</v>
-      </c>
-      <c r="N13">
-        <v>1.24</v>
       </c>
       <c r="O13">
         <v>1.24</v>
       </c>
       <c r="P13">
+        <v>1.24</v>
+      </c>
+      <c r="Q13">
         <v>10.98</v>
-      </c>
-      <c r="Q13">
-        <v>1.13</v>
       </c>
       <c r="R13">
         <v>1.13</v>
@@ -4165,10 +4180,13 @@
       <c r="T13">
         <v>1.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -4200,23 +4218,20 @@
       <c r="K14">
         <v>0.37</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.37</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.02</v>
-      </c>
-      <c r="N14">
-        <v>0.35</v>
       </c>
       <c r="O14">
         <v>0.35</v>
       </c>
       <c r="P14">
+        <v>0.35</v>
+      </c>
+      <c r="Q14">
         <v>10.98</v>
-      </c>
-      <c r="Q14">
-        <v>0.32</v>
       </c>
       <c r="R14">
         <v>0.32</v>
@@ -4227,10 +4242,13 @@
       <c r="T14">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>6.13</v>
@@ -4262,23 +4280,20 @@
       <c r="K15">
         <v>1.53</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.53</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.3</v>
-      </c>
-      <c r="N15">
-        <v>1.23</v>
       </c>
       <c r="O15">
         <v>1.23</v>
       </c>
       <c r="P15">
+        <v>1.23</v>
+      </c>
+      <c r="Q15">
         <v>10.98</v>
-      </c>
-      <c r="Q15">
-        <v>1.12</v>
       </c>
       <c r="R15">
         <v>1.12</v>
@@ -4289,10 +4304,13 @@
       <c r="T15">
         <v>1.12</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>5.12</v>
@@ -4324,23 +4342,20 @@
       <c r="K16">
         <v>0.52</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.52</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.11</v>
-      </c>
-      <c r="N16">
-        <v>0.41</v>
       </c>
       <c r="O16">
         <v>0.41</v>
       </c>
       <c r="P16">
+        <v>0.41</v>
+      </c>
+      <c r="Q16">
         <v>10.98</v>
-      </c>
-      <c r="Q16">
-        <v>0.38</v>
       </c>
       <c r="R16">
         <v>0.38</v>
@@ -4351,10 +4366,13 @@
       <c r="T16">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17">
         <v>6.93</v>
@@ -4386,23 +4404,20 @@
       <c r="K17">
         <v>1.65</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.65</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.54</v>
-      </c>
-      <c r="N17">
-        <v>1.11</v>
       </c>
       <c r="O17">
         <v>1.11</v>
       </c>
       <c r="P17">
+        <v>1.11</v>
+      </c>
+      <c r="Q17">
         <v>10.98</v>
-      </c>
-      <c r="Q17">
-        <v>1.01</v>
       </c>
       <c r="R17">
         <v>1.01</v>
@@ -4413,10 +4428,13 @@
       <c r="T17">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18">
         <v>6.49</v>
@@ -4448,23 +4466,20 @@
       <c r="K18">
         <v>0.89</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.89</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.23</v>
-      </c>
-      <c r="N18">
-        <v>0.66</v>
       </c>
       <c r="O18">
         <v>0.66</v>
       </c>
       <c r="P18">
+        <v>0.66</v>
+      </c>
+      <c r="Q18">
         <v>10.98</v>
-      </c>
-      <c r="Q18">
-        <v>0.6</v>
       </c>
       <c r="R18">
         <v>0.6</v>
@@ -4475,10 +4490,13 @@
       <c r="T18">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>6.97</v>
@@ -4510,23 +4528,20 @@
       <c r="K19">
         <v>1.22</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1.22</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.34</v>
-      </c>
-      <c r="N19">
-        <v>0.89</v>
       </c>
       <c r="O19">
         <v>0.89</v>
       </c>
       <c r="P19">
+        <v>0.89</v>
+      </c>
+      <c r="Q19">
         <v>10.98</v>
-      </c>
-      <c r="Q19">
-        <v>0.8100000000000001</v>
       </c>
       <c r="R19">
         <v>0.8100000000000001</v>
@@ -4537,10 +4552,13 @@
       <c r="T19">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <v>6.39</v>
@@ -4572,23 +4590,20 @@
       <c r="K20">
         <v>0.85</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.85</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.27</v>
-      </c>
-      <c r="N20">
-        <v>0.58</v>
       </c>
       <c r="O20">
         <v>0.58</v>
       </c>
       <c r="P20">
+        <v>0.58</v>
+      </c>
+      <c r="Q20">
         <v>10.98</v>
-      </c>
-      <c r="Q20">
-        <v>0.53</v>
       </c>
       <c r="R20">
         <v>0.53</v>
@@ -4599,10 +4614,13 @@
       <c r="T20">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>6.79</v>
@@ -4634,23 +4652,20 @@
       <c r="K21">
         <v>0.13</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.13</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-0.32</v>
-      </c>
-      <c r="N21">
-        <v>0.45</v>
       </c>
       <c r="O21">
         <v>0.45</v>
       </c>
       <c r="P21">
+        <v>0.45</v>
+      </c>
+      <c r="Q21">
         <v>10.98</v>
-      </c>
-      <c r="Q21">
-        <v>0.41</v>
       </c>
       <c r="R21">
         <v>0.41</v>
@@ -4661,10 +4676,13 @@
       <c r="T21">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>6.43</v>
@@ -4696,23 +4714,20 @@
       <c r="K22">
         <v>0.55</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.55</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2</v>
-      </c>
-      <c r="N22">
-        <v>0.35</v>
       </c>
       <c r="O22">
         <v>0.35</v>
       </c>
       <c r="P22">
+        <v>0.35</v>
+      </c>
+      <c r="Q22">
         <v>10.98</v>
-      </c>
-      <c r="Q22">
-        <v>0.32</v>
       </c>
       <c r="R22">
         <v>0.32</v>
@@ -4723,10 +4738,13 @@
       <c r="T22">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23">
         <v>4.88</v>
@@ -4758,23 +4776,20 @@
       <c r="K23">
         <v>0.44</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.44</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.17</v>
-      </c>
-      <c r="N23">
-        <v>0.28</v>
       </c>
       <c r="O23">
         <v>0.28</v>
       </c>
       <c r="P23">
+        <v>0.28</v>
+      </c>
+      <c r="Q23">
         <v>10.98</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
       </c>
       <c r="R23">
         <v>0.25</v>
@@ -4785,10 +4800,13 @@
       <c r="T23">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <v>4.58</v>
@@ -4820,23 +4838,20 @@
       <c r="K24">
         <v>0.23</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.23</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0.23</v>
       </c>
       <c r="O24">
         <v>0.23</v>
       </c>
       <c r="P24">
+        <v>0.23</v>
+      </c>
+      <c r="Q24">
         <v>10.98</v>
-      </c>
-      <c r="Q24">
-        <v>0.21</v>
       </c>
       <c r="R24">
         <v>0.21</v>
@@ -4847,10 +4862,13 @@
       <c r="T24">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25">
         <v>4.01</v>
@@ -4882,23 +4900,20 @@
       <c r="K25">
         <v>-0.49</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-0.49</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-0.05</v>
-      </c>
-      <c r="N25">
-        <v>-0.44</v>
       </c>
       <c r="O25">
         <v>-0.44</v>
       </c>
       <c r="P25">
+        <v>-0.44</v>
+      </c>
+      <c r="Q25">
         <v>10.98</v>
-      </c>
-      <c r="Q25">
-        <v>-0.4</v>
       </c>
       <c r="R25">
         <v>-0.4</v>
@@ -4909,10 +4924,13 @@
       <c r="T25">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <v>3.55</v>
@@ -4944,23 +4962,20 @@
       <c r="K26">
         <v>-0.41</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-0.41</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-0.06</v>
-      </c>
-      <c r="N26">
-        <v>-0.36</v>
       </c>
       <c r="O26">
         <v>-0.36</v>
       </c>
       <c r="P26">
+        <v>-0.36</v>
+      </c>
+      <c r="Q26">
         <v>10.98</v>
-      </c>
-      <c r="Q26">
-        <v>-0.33</v>
       </c>
       <c r="R26">
         <v>-0.33</v>
@@ -4971,10 +4986,13 @@
       <c r="T26">
         <v>-0.33</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>6.29</v>
@@ -5006,23 +5024,20 @@
       <c r="K27">
         <v>0.11</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.11</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.06</v>
-      </c>
-      <c r="N27">
-        <v>0.04</v>
       </c>
       <c r="O27">
         <v>0.04</v>
       </c>
       <c r="P27">
+        <v>0.04</v>
+      </c>
+      <c r="Q27">
         <v>10.98</v>
-      </c>
-      <c r="Q27">
-        <v>0.04</v>
       </c>
       <c r="R27">
         <v>0.04</v>
@@ -5033,10 +5048,13 @@
       <c r="T27">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28">
         <v>6.01</v>
@@ -5068,23 +5086,20 @@
       <c r="K28">
         <v>0.42</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.42</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.13</v>
-      </c>
-      <c r="N28">
-        <v>0.28</v>
       </c>
       <c r="O28">
         <v>0.28</v>
       </c>
       <c r="P28">
+        <v>0.28</v>
+      </c>
+      <c r="Q28">
         <v>10.98</v>
-      </c>
-      <c r="Q28">
-        <v>0.26</v>
       </c>
       <c r="R28">
         <v>0.26</v>
@@ -5095,10 +5110,13 @@
       <c r="T28">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29">
         <v>5.1</v>
@@ -5130,23 +5148,20 @@
       <c r="K29">
         <v>0.26</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.26</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.2</v>
       </c>
       <c r="O29">
         <v>0.2</v>
       </c>
       <c r="P29">
+        <v>0.2</v>
+      </c>
+      <c r="Q29">
         <v>10.98</v>
-      </c>
-      <c r="Q29">
-        <v>0.18</v>
       </c>
       <c r="R29">
         <v>0.18</v>
@@ -5157,10 +5172,13 @@
       <c r="T29">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30">
         <v>7.3</v>
@@ -5192,23 +5210,20 @@
       <c r="K30">
         <v>1.4</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.4</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.37</v>
-      </c>
-      <c r="N30">
-        <v>1.03</v>
       </c>
       <c r="O30">
         <v>1.03</v>
       </c>
       <c r="P30">
+        <v>1.03</v>
+      </c>
+      <c r="Q30">
         <v>10.98</v>
-      </c>
-      <c r="Q30">
-        <v>0.9399999999999999</v>
       </c>
       <c r="R30">
         <v>0.9399999999999999</v>
@@ -5219,10 +5234,13 @@
       <c r="T30">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31">
         <v>6.72</v>
@@ -5254,23 +5272,20 @@
       <c r="K31">
         <v>0.17</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.17</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.06</v>
-      </c>
-      <c r="N31">
-        <v>0.11</v>
       </c>
       <c r="O31">
         <v>0.11</v>
       </c>
       <c r="P31">
+        <v>0.11</v>
+      </c>
+      <c r="Q31">
         <v>10.98</v>
-      </c>
-      <c r="Q31">
-        <v>0.1</v>
       </c>
       <c r="R31">
         <v>0.1</v>
@@ -5281,10 +5296,13 @@
       <c r="T31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32">
         <v>6.8</v>
@@ -5316,23 +5334,20 @@
       <c r="K32">
         <v>0.75</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.75</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.22</v>
-      </c>
-      <c r="N32">
-        <v>0.53</v>
       </c>
       <c r="O32">
         <v>0.53</v>
       </c>
       <c r="P32">
+        <v>0.53</v>
+      </c>
+      <c r="Q32">
         <v>10.98</v>
-      </c>
-      <c r="Q32">
-        <v>0.48</v>
       </c>
       <c r="R32">
         <v>0.48</v>
@@ -5343,10 +5358,13 @@
       <c r="T32">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33">
         <v>11.76</v>
@@ -5378,23 +5396,20 @@
       <c r="K33">
         <v>2.68</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2.68</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.79</v>
-      </c>
-      <c r="N33">
-        <v>1.89</v>
       </c>
       <c r="O33">
         <v>1.89</v>
       </c>
       <c r="P33">
+        <v>1.89</v>
+      </c>
+      <c r="Q33">
         <v>10.98</v>
-      </c>
-      <c r="Q33">
-        <v>1.72</v>
       </c>
       <c r="R33">
         <v>1.72</v>
@@ -5405,10 +5420,13 @@
       <c r="T33">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34">
         <v>15.22</v>
@@ -5440,37 +5458,37 @@
       <c r="K34">
         <v>2.85</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2.85</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.74</v>
-      </c>
-      <c r="N34">
-        <v>2.11</v>
       </c>
       <c r="O34">
         <v>2.11</v>
       </c>
       <c r="P34">
+        <v>2.11</v>
+      </c>
+      <c r="Q34">
         <v>10.98</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1.93</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>1.9</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1.93</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1.9</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35">
         <v>13.01</v>
@@ -5502,37 +5520,37 @@
       <c r="K35">
         <v>2.05</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2.05</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.6</v>
-      </c>
-      <c r="N35">
-        <v>1.45</v>
       </c>
       <c r="O35">
         <v>1.45</v>
       </c>
       <c r="P35">
+        <v>1.45</v>
+      </c>
+      <c r="Q35">
         <v>10.98</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>1.32</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1.31</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>1.32</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>1.31</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36">
         <v>10.07</v>
@@ -5564,37 +5582,37 @@
       <c r="K36">
         <v>1.6</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1.6</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.53</v>
-      </c>
-      <c r="N36">
-        <v>1.08</v>
       </c>
       <c r="O36">
         <v>1.08</v>
       </c>
       <c r="P36">
+        <v>1.08</v>
+      </c>
+      <c r="Q36">
         <v>10.98</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.98</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.97</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.98</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.97</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37">
         <v>17.47</v>
@@ -5626,31 +5644,31 @@
       <c r="K37">
         <v>3.37</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>3.37</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.85</v>
-      </c>
-      <c r="N37">
-        <v>2.53</v>
       </c>
       <c r="O37">
         <v>2.53</v>
       </c>
       <c r="P37">
+        <v>2.53</v>
+      </c>
+      <c r="Q37">
         <v>10.98</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2.3</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2.23</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2.3</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>2.23</v>
       </c>
     </row>
@@ -5669,114 +5687,114 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:18">
